--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -31,7 +31,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.17</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.17</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-02-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -190,7 +190,7 @@
     <t>FON-07</t>
   </si>
   <si>
-    <t>Gérant après décès</t>
+    <t>Gérant après incapacité ou décès</t>
   </si>
   <si>
     <t>FON-09</t>

--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-23T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,6 +271,9 @@
     <t>Remplaçant, intérimaire, intermittent</t>
   </si>
   <si>
+    <t xml:space="preserve">Remplaçant, intérimaire, intermittent </t>
+  </si>
+  <si>
     <t>FON-23</t>
   </si>
   <si>
@@ -455,6 +458,21 @@
   </si>
   <si>
     <t>Docteur junior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par décret n°2018- 571 en date du 03 juillet 2018, les étudiants internes de 3e cycle en médecine, pharmacie ou biologie médicale qui accomplissent la phase 3 dite « de consolidation » sont dorénavant dénommés « Docteurs juniors ».  Lorsqu'il a validé l'ensemble des connaissances et compétences nécessaires à la validation de la phase 2 de la spécialité suivie, soutenu avec succès la thèse mentionnée à l'article R. 632-23 du code de l'éducation et obtenu le diplôme d'Etat de docteur en médecine, en pharmacie, ou en odontologie, l'étudiant de troisième cycle est nommé en qualité de docteur junior par le directeur général du centre hospitalier universitaire de rattachement. Les premières nominations de docteurs juniors sont intervenues à compter du 1er novembre 2020. </t>
+  </si>
+  <si>
+    <t>FON-58</t>
+  </si>
+  <si>
+    <t>Activité en piscine ou bassin</t>
+  </si>
+  <si>
+    <t>FON-59</t>
+  </si>
+  <si>
+    <t>Gérant d'antenne</t>
   </si>
   <si>
     <t>FON-AU</t>
@@ -828,7 +846,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1074,17 +1092,19 @@
       <c r="C20" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -1093,10 +1113,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -1105,10 +1125,10 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -1117,10 +1137,10 @@
         <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1129,10 +1149,10 @@
         <v>46</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -1141,10 +1161,10 @@
         <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1153,10 +1173,10 @@
         <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -1165,10 +1185,10 @@
         <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1177,10 +1197,10 @@
         <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1189,10 +1209,10 @@
         <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1201,10 +1221,10 @@
         <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -1213,10 +1233,10 @@
         <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -1225,10 +1245,10 @@
         <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1237,10 +1257,10 @@
         <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -1249,10 +1269,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1261,10 +1281,10 @@
         <v>46</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1273,10 +1293,10 @@
         <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -1285,10 +1305,10 @@
         <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -1297,10 +1317,10 @@
         <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -1309,10 +1329,10 @@
         <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1321,10 +1341,10 @@
         <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -1333,10 +1353,10 @@
         <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1345,10 +1365,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1357,10 +1377,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1369,10 +1389,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1381,10 +1401,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -1393,10 +1413,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1405,10 +1425,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -1417,10 +1437,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1429,10 +1449,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1441,24 +1461,50 @@
         <v>46</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D54" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,9 +271,6 @@
     <t>Remplaçant, intérimaire, intermittent</t>
   </si>
   <si>
-    <t xml:space="preserve">Remplaçant, intérimaire, intermittent </t>
-  </si>
-  <si>
     <t>FON-23</t>
   </si>
   <si>
@@ -460,7 +457,7 @@
     <t>Docteur junior</t>
   </si>
   <si>
-    <t xml:space="preserve">Par décret n°2018- 571 en date du 03 juillet 2018, les étudiants internes de 3e cycle en médecine, pharmacie ou biologie médicale qui accomplissent la phase 3 dite « de consolidation » sont dorénavant dénommés « Docteurs juniors ».  Lorsqu'il a validé l'ensemble des connaissances et compétences nécessaires à la validation de la phase 2 de la spécialité suivie, soutenu avec succès la thèse mentionnée à l'article R. 632-23 du code de l'éducation et obtenu le diplôme d'Etat de docteur en médecine, en pharmacie, ou en odontologie, l'étudiant de troisième cycle est nommé en qualité de docteur junior par le directeur général du centre hospitalier universitaire de rattachement. Les premières nominations de docteurs juniors sont intervenues à compter du 1er novembre 2020. </t>
+    <t>Par décret n°2018- 571 en date du 03 juillet 2018, les étudiants internes de 3e cycle en médecine, pharmacie ou biologie médicale qui accomplissent la phase 3 dite « de consolidation » sont dorénavant dénommés « Docteurs juniors ».  Lorsqu'il a validé l'ensemble des connaissances et compétences nécessaires à la validation de la phase 2 de la spécialité suivie, soutenu avec succès la thèse mentionnée à l'article R. 632-23 du code de l'éducation et obtenu le diplôme d'Etat de docteur en médecine, en pharmacie, ou en odontologie, l'étudiant de troisième cycle est nommé en qualité de docteur junior par le directeur général du centre hospitalier universitaire de rattachement. Les premières nominations de docteurs juniors sont intervenues à compter du 1er novembre 2020.</t>
   </si>
   <si>
     <t>FON-58</t>
@@ -1093,7 +1090,7 @@
         <v>84</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -1101,10 +1098,10 @@
         <v>46</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -1113,10 +1110,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -1125,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -1137,10 +1134,10 @@
         <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1149,10 +1146,10 @@
         <v>46</v>
       </c>
       <c r="B25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -1161,10 +1158,10 @@
         <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1173,10 +1170,10 @@
         <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -1185,10 +1182,10 @@
         <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1197,10 +1194,10 @@
         <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1209,10 +1206,10 @@
         <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1221,10 +1218,10 @@
         <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -1233,10 +1230,10 @@
         <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -1245,10 +1242,10 @@
         <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1257,10 +1254,10 @@
         <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -1269,10 +1266,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1281,10 +1278,10 @@
         <v>46</v>
       </c>
       <c r="B36" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1293,10 +1290,10 @@
         <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -1305,10 +1302,10 @@
         <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -1317,10 +1314,10 @@
         <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -1329,10 +1326,10 @@
         <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1341,10 +1338,10 @@
         <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -1353,10 +1350,10 @@
         <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1365,10 +1362,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1377,10 +1374,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1389,10 +1386,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1401,10 +1398,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -1413,10 +1410,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1425,10 +1422,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -1437,10 +1434,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1449,10 +1446,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C50" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1461,13 +1458,13 @@
         <v>46</v>
       </c>
       <c r="B51" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="D51" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="52">
@@ -1475,10 +1472,10 @@
         <v>46</v>
       </c>
       <c r="B52" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -1487,10 +1484,10 @@
         <v>46</v>
       </c>
       <c r="B53" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1499,10 +1496,10 @@
         <v>46</v>
       </c>
       <c r="B54" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="D54" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -609,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -715,63 +721,71 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -788,52 +802,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -851,655 +865,655 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D54" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
+++ b/ig/main/CodeSystem-TRE-R21-Fonction.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
